--- a/Documents/システムフロー.xlsx
+++ b/Documents/システムフロー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\work\repositorise\DispatchSpecification\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C90238E-44DF-43B9-8804-DAF02BF9A807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CC9C42-D342-4CF7-949C-814D3198F1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DA789B3F-DB77-4813-9E43-1A280F63EE47}"/>
   </bookViews>
@@ -33,9 +33,26 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>管理者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>システム管理者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部門担当</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,6 +68,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -60,12 +84,72 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -74,8 +158,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -93,6 +198,3981 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>128016</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="组合 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FA08566-F44F-3A98-7FE1-1666FC50C4C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2895600" y="533400"/>
+          <a:ext cx="1042416" cy="1057274"/>
+          <a:chOff x="2895600" y="533400"/>
+          <a:chExt cx="1042416" cy="1057274"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="矩形: 棱台 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7A7FC4A-00AF-4B68-514B-C00A498B6561}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2895600" y="533400"/>
+            <a:ext cx="1042416" cy="933450"/>
+          </a:xfrm>
+          <a:prstGeom prst="bevel">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>マスター</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>管理</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="流程图: 手动操作 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF4E5B17-3AF8-765E-F892-09FA926CC917}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="2962275" y="1476373"/>
+            <a:ext cx="914400" cy="114301"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartManualOperation">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>49149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形: 棱台 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D1C129-6A7F-366D-7F2F-14684AB6FA6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2638425" y="2039874"/>
+          <a:ext cx="1714500" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="bevel">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ユーザー管理</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>31623</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="流程图: 磁盘 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F0527DB-3452-117A-6004-7F6E2B8959E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5981700" y="2009775"/>
+          <a:ext cx="914400" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ユーザー</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>144399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>144399</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直接箭头连接符 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CB4BE3E-D7BF-66EE-51B0-BADDA4728EC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="0"/>
+          <a:endCxn id="11" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4352925" y="2316099"/>
+          <a:ext cx="1628775" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>30099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>163449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矩形: 棱台 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55BE64FC-BE86-B90D-CE04-6D58D3361C35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2638425" y="3163824"/>
+          <a:ext cx="1714500" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="bevel">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>会社管理</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12573</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="流程图: 磁盘 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33376E7-614C-CA23-220F-7992A8C0F14B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5981700" y="3133725"/>
+          <a:ext cx="914400" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>会社</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>125349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>125349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直接箭头连接符 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD084168-4B09-3C08-6CB2-6096E19720F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="0"/>
+          <a:endCxn id="15" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4352925" y="3440049"/>
+          <a:ext cx="1628775" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>134874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>144399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="矩形: 棱台 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03330CB7-023D-4B36-78C9-7ED00D14FF10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2638425" y="3868674"/>
+          <a:ext cx="1714500" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="bevel">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>役職管理</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>174498</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="流程图: 磁盘 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{603D173F-5AA4-575F-A3D9-7C332EFA2467}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5981700" y="3838575"/>
+          <a:ext cx="914400" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>役職</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>49149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>49149</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直接箭头连接符 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F99CA3-78FD-4D64-6262-1C4E540A02A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="0"/>
+          <a:endCxn id="18" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4352925" y="4144899"/>
+          <a:ext cx="1628775" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>134874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>144399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="矩形: 棱台 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43BB482D-9EC9-44A5-3F91-4CE87858DEBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2638425" y="4592574"/>
+          <a:ext cx="1714500" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="bevel">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>部門管理</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>174498</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="流程图: 磁盘 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE0A390B-712E-434F-BEBC-9648DF31DF28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5981700" y="4562475"/>
+          <a:ext cx="914400" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>部門</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>49149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>49149</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直接箭头连接符 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86963695-2EF4-13E8-6907-EABF197F5961}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="0"/>
+          <a:endCxn id="21" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4352925" y="4868799"/>
+          <a:ext cx="1628775" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>11049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="矩形: 棱台 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8A41848-030D-B7DA-66B5-97827C88E308}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2638425" y="5364099"/>
+          <a:ext cx="1714500" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="bevel">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>担当者管理</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>41148</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="流程图: 磁盘 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C63141F-F77F-EDE9-4B31-B5C676D1A87A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5981700" y="5334000"/>
+          <a:ext cx="914400" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>担当者</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>96774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>96774</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直接箭头连接符 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0DA4390-44A9-1B4B-3324-9CD639343ED2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="0"/>
+          <a:endCxn id="24" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4352925" y="5640324"/>
+          <a:ext cx="1628775" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>68199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>77724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="矩形: 棱台 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B176473-00A6-B8CE-8F75-4C68909FD990}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2638425" y="6516624"/>
+          <a:ext cx="1714500" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="bevel">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>社員管理</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>107823</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="流程图: 磁盘 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20D0FBF9-2745-6EDC-975E-5811E29DC84A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5981700" y="6486525"/>
+          <a:ext cx="914400" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>社員</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>163449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>163449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直接箭头连接符 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7478768D-8370-EAA2-6679-F707E85F1D2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="0"/>
+          <a:endCxn id="27" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4352925" y="6792849"/>
+          <a:ext cx="1628775" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>128016</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="29" name="组合 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41FA02E8-D200-42A7-BA3A-5CC54237F0E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8610600" y="533400"/>
+          <a:ext cx="1042416" cy="1057274"/>
+          <a:chOff x="2895600" y="533400"/>
+          <a:chExt cx="1042416" cy="1057274"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="矩形: 棱台 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{195167EC-765E-1797-2D67-F348241E9642}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2895600" y="533400"/>
+            <a:ext cx="1042416" cy="933450"/>
+          </a:xfrm>
+          <a:prstGeom prst="bevel">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>技術者</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>管理</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="流程图: 手动操作 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F678EE1-A928-70A4-EA59-719E8697DC0B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="2962275" y="1476373"/>
+            <a:ext cx="914400" cy="114301"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartManualOperation">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>39624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>49149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="矩形: 棱台 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC21FDB-0353-C055-874D-2182C42DEDAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="9745599"/>
+          <a:ext cx="1714500" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="bevel">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>案件管理</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>79248</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="流程图: 磁盘 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC7C93F5-7F03-8CC5-2C6C-7354E63C092C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11563350" y="9715500"/>
+          <a:ext cx="914400" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>案件</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>134874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>134874</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直接箭头连接符 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43BCDBD4-8795-0049-3878-0FE03CB8AFE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="0"/>
+          <a:endCxn id="33" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9944100" y="10021824"/>
+          <a:ext cx="1619250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>145923</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="流程图: 磁盘 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A8E5F7A-6C21-1665-9658-E044011D1950}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11563350" y="6886575"/>
+          <a:ext cx="914400" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>担当者</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="流程图: 磁盘 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCD5CB93-483A-074B-95D0-3B024E7A8AF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5981700" y="6134098"/>
+          <a:ext cx="914400" cy="1771651"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>会社</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>部門</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>役職</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>96774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="连接符: 肘形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8241DA64-28D4-5D89-B2ED-D8BFF138C9CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="2"/>
+          <a:endCxn id="23" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4352926" y="5640324"/>
+          <a:ext cx="1628775" cy="1379600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>20574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>134874</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="连接符: 肘形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A250B274-C1C5-E6FD-AE3C-3957BBE49B44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="2"/>
+          <a:endCxn id="32" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="9944100" y="9183624"/>
+          <a:ext cx="1619250" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>153924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>163449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="矩形: 棱台 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D39714B4-1421-8AB1-2F00-855AC76E6312}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="10764774"/>
+          <a:ext cx="1714500" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="bevel">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>面談管理</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>12573</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="流程图: 磁盘 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D1F1B3A-3EC4-10D2-64B5-D37818B01753}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11563350" y="10734675"/>
+          <a:ext cx="914400" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>面談</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>68199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>68199</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="直接箭头连接符 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6977D333-7845-C007-9DC5-DBBA8F084927}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="0"/>
+          <a:endCxn id="52" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9944100" y="11040999"/>
+          <a:ext cx="1619250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>79248</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="流程图: 磁盘 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2E11143-6A25-4C42-558B-A8F99538B936}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11563350" y="11525250"/>
+          <a:ext cx="914400" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>社員</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>68200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>134875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="连接符: 肘形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F4DF67A-A055-97D0-0202-347E828044E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="55" idx="2"/>
+          <a:endCxn id="51" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="9944100" y="11041000"/>
+          <a:ext cx="1619250" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>3048</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="流程图: 磁盘 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{539F82C4-872E-7EAB-3C7E-6551B51B7F95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11563350" y="12353925"/>
+          <a:ext cx="914400" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>案件</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>68199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>58674</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="连接符: 肘形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D61D9744-671C-7385-26F2-93CD92A54E50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="66" idx="2"/>
+          <a:endCxn id="51" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="9944100" y="11040999"/>
+          <a:ext cx="1619250" cy="1619250"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>87249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>96774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="矩形: 棱台 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C83ACD-F017-19C7-7669-267A39E47CA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="13231749"/>
+          <a:ext cx="1714500" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="bevel">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>現場管理</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>126873</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="流程图: 磁盘 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD39850B-A88B-A4C6-AD82-5C4ADF05ED72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11563350" y="13201650"/>
+          <a:ext cx="914400" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>現場</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>69723</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="流程图: 磁盘 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F59B3E5-128A-5B18-ECFE-81920107045A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11563350" y="14049375"/>
+          <a:ext cx="914400" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>社員</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>1525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>125350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="连接符: 肘形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD0DD625-469C-8E96-D7C4-AB21D414E86E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="75" idx="2"/>
+          <a:endCxn id="73" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="9944100" y="13507975"/>
+          <a:ext cx="1619250" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>174498</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="流程图: 磁盘 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DCB6C4E-FE05-22F4-4D54-72A493FB83C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11563350" y="14878050"/>
+          <a:ext cx="914400" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>案件</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>1524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>49149</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="连接符: 肘形 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1358AEFD-3D1D-1A7F-D901-C7A45E041D66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="77" idx="2"/>
+          <a:endCxn id="73" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="9944100" y="13507974"/>
+          <a:ext cx="1619250" cy="1676400"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>1524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>1524</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="直接箭头连接符 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C09B068A-ADA7-D99F-0429-9C7810B9AA0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="73" idx="0"/>
+          <a:endCxn id="74" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9944100" y="13507974"/>
+          <a:ext cx="1619250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>125349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>134874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="矩形: 棱台 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B59FAF04-A0D2-6722-D7B9-E2A03F390DE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="15803499"/>
+          <a:ext cx="1714500" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="bevel">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>入退場管理</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>164973</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="流程图: 磁盘 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D524498-7B0A-FD72-E48A-0AE5F75A1142}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11563350" y="15773400"/>
+          <a:ext cx="914400" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>入退場</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>107823</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="流程图: 磁盘 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA8F3A5D-E510-2EB4-2F85-DAB9EE7CDC0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11563350" y="16621125"/>
+          <a:ext cx="914400" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>社員</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>31623</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="流程图: 磁盘 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60033FBB-D129-1E08-4E36-F80C4A94B85F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11563350" y="17449800"/>
+          <a:ext cx="914400" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>案件</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>39624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>39624</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="直接箭头连接符 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB02F1D8-2661-EEA0-16AE-B84FE0D314A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="86" idx="0"/>
+          <a:endCxn id="87" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9944100" y="16079724"/>
+          <a:ext cx="1619250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>126873</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="流程图: 磁盘 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3531B7B5-1C2A-2269-CF33-3C50EE6AADA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11563350" y="18268950"/>
+          <a:ext cx="914400" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>現場</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>39624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>163449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="连接符: 肘形 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89DC31A1-E667-E52E-A566-35CF8342BB3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="86" idx="0"/>
+          <a:endCxn id="88" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9944100" y="16079724"/>
+          <a:ext cx="1619250" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>39624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>87249</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="连接符: 肘形 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA6C8A22-8146-846B-3A60-55436C1CB373}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="86" idx="0"/>
+          <a:endCxn id="90" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9944100" y="16079724"/>
+          <a:ext cx="1619250" cy="1676400"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>39624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>1524</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="连接符: 肘形 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE22CBE7-A817-1D3C-DFAB-C383C51D83A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="86" idx="0"/>
+          <a:endCxn id="93" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9944100" y="16079724"/>
+          <a:ext cx="1619250" cy="2495550"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>168783</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>94107</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="箭头: 右 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9498F80-D051-E6EF-92DC-B8FD0257C93E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5857875" y="695325"/>
+          <a:ext cx="978408" cy="484632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>128016</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="110" name="组合 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2DC42E8-6E57-4461-A2EA-6F6AFE889B2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="14325600" y="533400"/>
+          <a:ext cx="1042416" cy="1057274"/>
+          <a:chOff x="2895600" y="533400"/>
+          <a:chExt cx="1042416" cy="1057274"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="111" name="矩形: 棱台 110">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79D9D555-FD89-AF20-EF83-89DA154636EF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2895600" y="533400"/>
+            <a:ext cx="1042416" cy="933450"/>
+          </a:xfrm>
+          <a:prstGeom prst="bevel">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>実績</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>管理</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="112" name="流程图: 手动操作 111">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A737102-191F-E801-422F-0EF5155408C6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="2962275" y="1476373"/>
+            <a:ext cx="914400" cy="114301"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartManualOperation">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>168783</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>94107</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="箭头: 右 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2570D128-A418-44C1-9178-CEC5A74969F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5857875" y="695325"/>
+          <a:ext cx="978408" cy="484632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -392,13 +4472,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A75842-5B10-470B-9F5D-B272049B977F}">
-  <dimension ref="A1"/>
+  <dimension ref="A10:CI52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="11" ySplit="10" topLeftCell="L91" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="CA20" sqref="CA20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="12" max="12" width="2.5" style="3"/>
+    <col min="27" max="27" width="2.5" style="3"/>
+    <col min="42" max="42" width="2.5" style="3"/>
+    <col min="57" max="57" width="2.5" style="3"/>
+    <col min="72" max="72" width="2.5" style="3"/>
+    <col min="87" max="87" width="2.5" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="1:87" s="1" customFormat="1">
+      <c r="L10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AP10" s="2"/>
+      <c r="BE10" s="2"/>
+      <c r="BT10" s="2"/>
+      <c r="CI10" s="2"/>
+    </row>
+    <row r="13" spans="1:87" ht="18.75">
+      <c r="C13" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:87">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="7"/>
+    </row>
+    <row r="19" spans="3:3" ht="18.75">
+      <c r="C19" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:41">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="5"/>
+      <c r="AF45" s="5"/>
+      <c r="AG45" s="5"/>
+      <c r="AH45" s="5"/>
+      <c r="AI45" s="5"/>
+      <c r="AJ45" s="5"/>
+      <c r="AK45" s="5"/>
+      <c r="AL45" s="5"/>
+      <c r="AM45" s="5"/>
+      <c r="AN45" s="5"/>
+      <c r="AO45" s="7"/>
+    </row>
+    <row r="49" spans="3:41">
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="3:41">
+      <c r="L52" s="6"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="6"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="5"/>
+      <c r="AF52" s="5"/>
+      <c r="AG52" s="5"/>
+      <c r="AH52" s="5"/>
+      <c r="AI52" s="5"/>
+      <c r="AJ52" s="5"/>
+      <c r="AK52" s="5"/>
+      <c r="AL52" s="5"/>
+      <c r="AM52" s="5"/>
+      <c r="AN52" s="5"/>
+      <c r="AO52" s="7"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/システムフロー.xlsx
+++ b/Documents/システムフロー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\work\repositorise\DispatchSpecification\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CC9C42-D342-4CF7-949C-814D3198F1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129A4A02-65AD-4BCE-A9C3-409F508EF6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DA789B3F-DB77-4813-9E43-1A280F63EE47}"/>
   </bookViews>
@@ -4167,6 +4167,291 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>95</xdr:col>
+      <xdr:colOff>168783</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>94107</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="箭头: 右 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{649D4F9D-8159-49EC-B531-F3D456A99FB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11572875" y="695325"/>
+          <a:ext cx="978408" cy="484632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>105</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>110</xdr:col>
+      <xdr:colOff>128016</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="组合 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{049A8028-E62B-4D38-BAA5-9126305CB400}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="20040600" y="533400"/>
+          <a:ext cx="1042416" cy="1057274"/>
+          <a:chOff x="2895600" y="533400"/>
+          <a:chExt cx="1042416" cy="1057274"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="矩形: 棱台 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFD5F212-A7ED-1BBA-D015-4268761A3489}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2895600" y="533400"/>
+            <a:ext cx="1042416" cy="933450"/>
+          </a:xfrm>
+          <a:prstGeom prst="bevel">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>評価</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>管理</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="流程图: 手动操作 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5032DB9B-5D74-E8E3-7A83-D60B08E52576}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="2962275" y="1476373"/>
+            <a:ext cx="914400" cy="114301"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartManualOperation">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>114</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="矩形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F1478A7-485C-910E-A5B2-42B3728163E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13973174" y="9067799"/>
+          <a:ext cx="7820025" cy="4352925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="4400" b="1"/>
+            <a:t>作成中</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="4400" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4472,13 +4757,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A75842-5B10-470B-9F5D-B272049B977F}">
-  <dimension ref="A10:CI52"/>
+  <dimension ref="A10:DM49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="11" ySplit="10" topLeftCell="L91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="10" topLeftCell="AM46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="CA20" sqref="CA20"/>
+      <selection pane="bottomRight" activeCell="BT53" sqref="BT53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.25"/>
@@ -4489,22 +4774,26 @@
     <col min="57" max="57" width="2.5" style="3"/>
     <col min="72" max="72" width="2.5" style="3"/>
     <col min="87" max="87" width="2.5" style="3"/>
+    <col min="102" max="102" width="2.5" style="3"/>
+    <col min="117" max="117" width="2.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:87" s="1" customFormat="1">
+    <row r="10" spans="1:117" s="1" customFormat="1">
       <c r="L10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AP10" s="2"/>
       <c r="BE10" s="2"/>
       <c r="BT10" s="2"/>
       <c r="CI10" s="2"/>
+      <c r="CX10" s="2"/>
+      <c r="DM10" s="2"/>
     </row>
-    <row r="13" spans="1:87" ht="18.75">
+    <row r="13" spans="1:117" ht="18.75">
       <c r="C13" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:87">
+    <row r="16" spans="1:117">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -4552,7 +4841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:41">
+    <row r="45" spans="1:117">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -4594,43 +4883,87 @@
       <c r="AM45" s="5"/>
       <c r="AN45" s="5"/>
       <c r="AO45" s="7"/>
+      <c r="AP45" s="6"/>
+      <c r="AQ45" s="5"/>
+      <c r="AR45" s="5"/>
+      <c r="AS45" s="5"/>
+      <c r="AT45" s="5"/>
+      <c r="AU45" s="5"/>
+      <c r="AV45" s="5"/>
+      <c r="AW45" s="5"/>
+      <c r="AX45" s="5"/>
+      <c r="AY45" s="5"/>
+      <c r="AZ45" s="5"/>
+      <c r="BA45" s="5"/>
+      <c r="BB45" s="5"/>
+      <c r="BC45" s="5"/>
+      <c r="BD45" s="7"/>
+      <c r="BE45" s="6"/>
+      <c r="BF45" s="5"/>
+      <c r="BG45" s="5"/>
+      <c r="BH45" s="5"/>
+      <c r="BI45" s="5"/>
+      <c r="BJ45" s="5"/>
+      <c r="BK45" s="5"/>
+      <c r="BL45" s="5"/>
+      <c r="BM45" s="5"/>
+      <c r="BN45" s="5"/>
+      <c r="BO45" s="5"/>
+      <c r="BP45" s="5"/>
+      <c r="BQ45" s="5"/>
+      <c r="BR45" s="5"/>
+      <c r="BS45" s="7"/>
+      <c r="BT45" s="6"/>
+      <c r="BU45" s="5"/>
+      <c r="BV45" s="5"/>
+      <c r="BW45" s="5"/>
+      <c r="BX45" s="5"/>
+      <c r="BY45" s="5"/>
+      <c r="BZ45" s="5"/>
+      <c r="CA45" s="5"/>
+      <c r="CB45" s="5"/>
+      <c r="CC45" s="5"/>
+      <c r="CD45" s="5"/>
+      <c r="CE45" s="5"/>
+      <c r="CF45" s="5"/>
+      <c r="CG45" s="5"/>
+      <c r="CH45" s="7"/>
+      <c r="CI45" s="6"/>
+      <c r="CJ45" s="5"/>
+      <c r="CK45" s="5"/>
+      <c r="CL45" s="5"/>
+      <c r="CM45" s="5"/>
+      <c r="CN45" s="5"/>
+      <c r="CO45" s="5"/>
+      <c r="CP45" s="5"/>
+      <c r="CQ45" s="5"/>
+      <c r="CR45" s="5"/>
+      <c r="CS45" s="5"/>
+      <c r="CT45" s="5"/>
+      <c r="CU45" s="5"/>
+      <c r="CV45" s="5"/>
+      <c r="CW45" s="7"/>
+      <c r="CX45" s="6"/>
+      <c r="CY45" s="5"/>
+      <c r="CZ45" s="5"/>
+      <c r="DA45" s="5"/>
+      <c r="DB45" s="5"/>
+      <c r="DC45" s="5"/>
+      <c r="DD45" s="5"/>
+      <c r="DE45" s="5"/>
+      <c r="DF45" s="5"/>
+      <c r="DG45" s="5"/>
+      <c r="DH45" s="5"/>
+      <c r="DI45" s="5"/>
+      <c r="DJ45" s="5"/>
+      <c r="DK45" s="5"/>
+      <c r="DL45" s="7"/>
+      <c r="DM45" s="6"/>
     </row>
-    <row r="49" spans="3:41">
+    <row r="49" spans="3:3">
       <c r="C49" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="3:41">
-      <c r="L52" s="6"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
-      <c r="U52" s="5"/>
-      <c r="V52" s="5"/>
-      <c r="W52" s="5"/>
-      <c r="X52" s="5"/>
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="5"/>
-      <c r="AA52" s="6"/>
-      <c r="AB52" s="5"/>
-      <c r="AC52" s="5"/>
-      <c r="AD52" s="5"/>
-      <c r="AE52" s="5"/>
-      <c r="AF52" s="5"/>
-      <c r="AG52" s="5"/>
-      <c r="AH52" s="5"/>
-      <c r="AI52" s="5"/>
-      <c r="AJ52" s="5"/>
-      <c r="AK52" s="5"/>
-      <c r="AL52" s="5"/>
-      <c r="AM52" s="5"/>
-      <c r="AN52" s="5"/>
-      <c r="AO52" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
